--- a/data/trans_camb/P3A_R-Estudios-trans_camb.xlsx
+++ b/data/trans_camb/P3A_R-Estudios-trans_camb.xlsx
@@ -685,47 +685,47 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-3,58; 2,24</t>
+          <t>-3,35; 2,37</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>1,7; 8,35</t>
+          <t>1,83; 8,46</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>40,41; 49,07</t>
+          <t>40,4; 49,3</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-5,18; 1,98</t>
+          <t>-5,1; 2,1</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-3,42; 5,14</t>
+          <t>-3,4; 5,07</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>17,57; 24,23</t>
+          <t>17,47; 24,44</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>-2,97; 2,79</t>
+          <t>-3,07; 2,89</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>-0,04; 5,95</t>
+          <t>-0,01; 6,24</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>29,89; 35,69</t>
+          <t>29,84; 35,87</t>
         </is>
       </c>
     </row>
@@ -791,47 +791,47 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-28,51; 24,33</t>
+          <t>-28,1; 23,96</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>13,01; 90,2</t>
+          <t>14,03; 88,64</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>324,86; 526,19</t>
+          <t>327,03; 536,34</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-7,95; 3,22</t>
+          <t>-7,74; 3,44</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-5,19; 8,32</t>
+          <t>-5,22; 8,18</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>27,27; 39,53</t>
+          <t>26,63; 39,84</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>-7,2; 7,3</t>
+          <t>-7,32; 7,44</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>-0,07; 15,33</t>
+          <t>0,0; 15,83</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>71,59; 92,33</t>
+          <t>71,45; 92,98</t>
         </is>
       </c>
     </row>
@@ -901,47 +901,47 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-0,22; 3,27</t>
+          <t>-0,38; 3,3</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>4,24; 8,33</t>
+          <t>4,3; 8,18</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>52,54; 60,31</t>
+          <t>52,38; 60,47</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-0,74; 6,14</t>
+          <t>-1,08; 6,1</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-0,81; 6,16</t>
+          <t>-0,34; 6,38</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>39,16; 45,03</t>
+          <t>39,08; 44,75</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>-0,75; 3,57</t>
+          <t>-1,07; 3,54</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>2,59; 7,01</t>
+          <t>2,68; 7,05</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>46,77; 53,07</t>
+          <t>47,27; 53,35</t>
         </is>
       </c>
     </row>
@@ -1007,47 +1007,47 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-3,2; 56,59</t>
+          <t>-5,11; 55,81</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>53,72; 142,6</t>
+          <t>54,08; 139,49</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>680,55; 1043,72</t>
+          <t>678,05; 1059,0</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-1,39; 12,41</t>
+          <t>-2,05; 12,42</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-1,54; 12,45</t>
+          <t>-0,65; 13,08</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>73,13; 91,74</t>
+          <t>73,51; 92,15</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>-2,6; 13,19</t>
+          <t>-3,5; 13,12</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>8,78; 25,87</t>
+          <t>9,18; 25,99</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>158,95; 195,86</t>
+          <t>161,14; 198,4</t>
         </is>
       </c>
     </row>
@@ -1117,47 +1117,47 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-1,54; 6,69</t>
+          <t>-1,41; 7,04</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>4,93; 13,36</t>
+          <t>4,96; 13,51</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>58,92; 67,88</t>
+          <t>58,61; 67,91</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-4,07; 9,38</t>
+          <t>-4,22; 8,87</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-1,87; 10,9</t>
+          <t>-1,16; 11,45</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>47,36; 57,66</t>
+          <t>46,93; 57,2</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>-0,79; 7,39</t>
+          <t>-0,43; 7,58</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>4,22; 12,21</t>
+          <t>4,3; 12,12</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>55,63; 62,69</t>
+          <t>55,57; 62,43</t>
         </is>
       </c>
     </row>
@@ -1223,47 +1223,47 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-16,03; 89,98</t>
+          <t>-13,74; 94,76</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>44,37; 187,44</t>
+          <t>41,63; 184,53</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>516,61; 1001,83</t>
+          <t>498,33; 997,31</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>-9,86; 27,36</t>
+          <t>-10,18; 25,34</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>-4,57; 31,5</t>
+          <t>-2,82; 33,2</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>111,99; 172,14</t>
+          <t>110,46; 167,99</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>-3,39; 35,4</t>
+          <t>-2,02; 37,42</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>17,3; 60,27</t>
+          <t>18,06; 59,56</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>222,99; 317,06</t>
+          <t>221,34; 313,39</t>
         </is>
       </c>
     </row>
@@ -1333,47 +1333,47 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-0,53; 2,37</t>
+          <t>-0,45; 2,38</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>4,31; 7,46</t>
+          <t>4,13; 7,38</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>52,19; 58,22</t>
+          <t>52,73; 58,15</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>-1,54; 3,43</t>
+          <t>-1,25; 3,35</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>-1,29; 3,45</t>
+          <t>-0,95; 3,77</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>34,59; 38,74</t>
+          <t>34,62; 38,61</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>-0,72; 2,71</t>
+          <t>-0,54; 2,68</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>1,92; 5,34</t>
+          <t>2,04; 5,26</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>44,22; 48,67</t>
+          <t>44,65; 48,56</t>
         </is>
       </c>
     </row>
@@ -1439,47 +1439,47 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>-6,15; 30,15</t>
+          <t>-5,05; 30,5</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>46,45; 95,2</t>
+          <t>44,23; 93,73</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>575,09; 763,34</t>
+          <t>571,22; 760,71</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>-2,77; 6,49</t>
+          <t>-2,26; 6,25</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>-2,35; 6,55</t>
+          <t>-1,79; 7,11</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>62,1; 73,38</t>
+          <t>62,35; 73,4</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>-2,27; 8,68</t>
+          <t>-1,66; 8,74</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>5,89; 17,44</t>
+          <t>6,21; 17,03</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>136,04; 158,07</t>
+          <t>138,68; 158,48</t>
         </is>
       </c>
     </row>

--- a/data/trans_camb/P3A_R-Estudios-trans_camb.xlsx
+++ b/data/trans_camb/P3A_R-Estudios-trans_camb.xlsx
@@ -567,7 +567,7 @@
       </c>
       <c r="D2" s="3" t="inlineStr">
         <is>
-          <t>2015/2007</t>
+          <t>2016/2007</t>
         </is>
       </c>
       <c r="E2" s="3" t="inlineStr">
@@ -582,7 +582,7 @@
       </c>
       <c r="G2" s="3" t="inlineStr">
         <is>
-          <t>2015/2007</t>
+          <t>2016/2007</t>
         </is>
       </c>
       <c r="H2" s="3" t="inlineStr">
@@ -597,7 +597,7 @@
       </c>
       <c r="J2" s="3" t="inlineStr">
         <is>
-          <t>2015/2007</t>
+          <t>2016/2007</t>
         </is>
       </c>
       <c r="K2" s="3" t="inlineStr">
@@ -685,47 +685,47 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-3,35; 2,37</t>
+          <t>-3,44; 2,14</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>1,83; 8,46</t>
+          <t>1,71; 8,23</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>40,4; 49,3</t>
+          <t>40,51; 49,66</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-5,1; 2,1</t>
+          <t>-5,19; 2,26</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-3,4; 5,07</t>
+          <t>-3,41; 5,33</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>17,47; 24,44</t>
+          <t>18,19; 24,34</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>-3,07; 2,89</t>
+          <t>-2,88; 2,88</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>-0,01; 6,24</t>
+          <t>-0,06; 6,25</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>29,84; 35,87</t>
+          <t>29,79; 35,85</t>
         </is>
       </c>
     </row>
@@ -791,47 +791,47 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-28,1; 23,96</t>
+          <t>-27,65; 23,47</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>14,03; 88,64</t>
+          <t>13,99; 86,42</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>327,03; 536,34</t>
+          <t>322,65; 531,63</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-7,74; 3,44</t>
+          <t>-7,97; 3,62</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-5,22; 8,18</t>
+          <t>-5,26; 8,63</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>26,63; 39,84</t>
+          <t>27,87; 39,74</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>-7,32; 7,44</t>
+          <t>-7,11; 7,46</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>0,0; 15,83</t>
+          <t>-0,15; 16,0</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>71,45; 92,98</t>
+          <t>70,9; 92,53</t>
         </is>
       </c>
     </row>
@@ -901,47 +901,47 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-0,38; 3,3</t>
+          <t>-0,34; 3,37</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>4,3; 8,18</t>
+          <t>4,13; 8,13</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>52,38; 60,47</t>
+          <t>51,85; 60,31</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-1,08; 6,1</t>
+          <t>-0,96; 6,21</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-0,34; 6,38</t>
+          <t>-0,25; 6,65</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>39,08; 44,75</t>
+          <t>39,11; 44,77</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>-1,07; 3,54</t>
+          <t>-0,78; 3,65</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>2,68; 7,05</t>
+          <t>2,47; 6,82</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>47,27; 53,35</t>
+          <t>47,54; 53,41</t>
         </is>
       </c>
     </row>
@@ -1007,47 +1007,47 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-5,11; 55,81</t>
+          <t>-4,23; 57,49</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>54,08; 139,49</t>
+          <t>54,19; 139,27</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>678,05; 1059,0</t>
+          <t>675,99; 1058,86</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-2,05; 12,42</t>
+          <t>-1,82; 12,52</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-0,65; 13,08</t>
+          <t>-0,47; 13,49</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>73,51; 92,15</t>
+          <t>73,32; 91,19</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>-3,5; 13,12</t>
+          <t>-2,65; 13,2</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>9,18; 25,99</t>
+          <t>8,34; 25,05</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>161,14; 198,4</t>
+          <t>162,36; 197,22</t>
         </is>
       </c>
     </row>
@@ -1117,47 +1117,47 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-1,41; 7,04</t>
+          <t>-1,06; 6,85</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>4,96; 13,51</t>
+          <t>4,65; 13,61</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>58,61; 67,91</t>
+          <t>58,72; 67,78</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-4,22; 8,87</t>
+          <t>-4,8; 8,73</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-1,16; 11,45</t>
+          <t>-1,5; 11,09</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>46,93; 57,2</t>
+          <t>47,17; 57,17</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>-0,43; 7,58</t>
+          <t>-0,93; 7,41</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>4,3; 12,12</t>
+          <t>4,26; 12,41</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>55,57; 62,43</t>
+          <t>55,13; 62,55</t>
         </is>
       </c>
     </row>
@@ -1223,47 +1223,47 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-13,74; 94,76</t>
+          <t>-9,81; 94,36</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>41,63; 184,53</t>
+          <t>39,08; 190,44</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>498,33; 997,31</t>
+          <t>501,19; 992,37</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>-10,18; 25,34</t>
+          <t>-11,56; 25,0</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>-2,82; 33,2</t>
+          <t>-4,41; 32,02</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>110,46; 167,99</t>
+          <t>111,88; 167,98</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>-2,02; 37,42</t>
+          <t>-3,72; 36,02</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>18,06; 59,56</t>
+          <t>16,85; 60,55</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>221,34; 313,39</t>
+          <t>219,86; 313,07</t>
         </is>
       </c>
     </row>
@@ -1333,47 +1333,47 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-0,45; 2,38</t>
+          <t>-0,6; 2,36</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>4,13; 7,38</t>
+          <t>4,4; 7,57</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>52,73; 58,15</t>
+          <t>52,65; 58,16</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>-1,25; 3,35</t>
+          <t>-1,41; 3,47</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>-0,95; 3,77</t>
+          <t>-1,19; 3,73</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>34,62; 38,61</t>
+          <t>34,49; 38,85</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>-0,54; 2,68</t>
+          <t>-0,52; 2,89</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>2,04; 5,26</t>
+          <t>1,99; 5,25</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>44,65; 48,56</t>
+          <t>44,63; 48,72</t>
         </is>
       </c>
     </row>
@@ -1439,47 +1439,47 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>-5,05; 30,5</t>
+          <t>-6,71; 30,93</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>44,23; 93,73</t>
+          <t>47,58; 98,61</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>571,22; 760,71</t>
+          <t>572,21; 766,12</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>-2,26; 6,25</t>
+          <t>-2,56; 6,49</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>-1,79; 7,11</t>
+          <t>-2,15; 7,01</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>62,35; 73,4</t>
+          <t>61,9; 74,08</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>-1,66; 8,74</t>
+          <t>-1,64; 9,25</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>6,21; 17,03</t>
+          <t>6,07; 17,04</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>138,68; 158,48</t>
+          <t>137,42; 158,83</t>
         </is>
       </c>
     </row>

--- a/data/trans_camb/P3A_R-Estudios-trans_camb.xlsx
+++ b/data/trans_camb/P3A_R-Estudios-trans_camb.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal cambio" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Cambio" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -531,7 +531,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Tareas del hogar realizadas por el/la entrevistado/a</t>
+          <t>Hogares en los que las tareas domésticas las realiza principalmente el/la entrevistado/a</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -632,47 +632,47 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>-0,59</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>4,91</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>44,72</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>-1,38</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>1,01</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>21,28</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>-0,09</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>3,13</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>32,94</t>
+          <t>0,0</t>
         </is>
       </c>
     </row>
@@ -685,47 +685,47 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-3,44; 2,14</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>1,71; 8,23</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>40,51; 49,66</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-5,19; 2,26</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-3,41; 5,33</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>18,19; 24,34</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>-2,88; 2,88</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>-0,06; 6,25</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>29,79; 35,85</t>
+          <t>—; —</t>
         </is>
       </c>
     </row>
@@ -738,47 +738,47 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>-5,46%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>45,41%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>413,28%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>-2,18%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>1,59%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>33,55%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>-0,23%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>7,76%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>81,72%</t>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -791,47 +791,47 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-27,65; 23,47</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>13,99; 86,42</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>322,65; 531,63</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-7,97; 3,62</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-5,26; 8,63</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>27,87; 39,74</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>-7,11; 7,46</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>-0,15; 16,0</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>70,9; 92,53</t>
+          <t>—; —</t>
         </is>
       </c>
     </row>
@@ -848,47 +848,47 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>1,45</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>6,12</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>57,32</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>2,49</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>2,86</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>41,92</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>1,42</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>4,76</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>50,62</t>
+          <t>0,0</t>
         </is>
       </c>
     </row>
@@ -901,47 +901,47 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-0,34; 3,37</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>4,13; 8,13</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>51,85; 60,31</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-0,96; 6,21</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-0,25; 6,65</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>39,11; 44,77</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>-0,78; 3,65</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>2,47; 6,82</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>47,54; 53,41</t>
+          <t>—; —</t>
         </is>
       </c>
     </row>
@@ -954,47 +954,47 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>21,22%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>89,71%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>840,24%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>4,85%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>5,58%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>81,8%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>5,03%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>16,8%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>178,75%</t>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -1007,47 +1007,47 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-4,23; 57,49</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>54,19; 139,27</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>675,99; 1058,86</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-1,82; 12,52</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-0,47; 13,49</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>73,32; 91,19</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>-2,65; 13,2</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>8,34; 25,05</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>162,36; 197,22</t>
+          <t>—; —</t>
         </is>
       </c>
     </row>
@@ -1064,47 +1064,47 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>2,92</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>9,3</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>63,36</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>2,13</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>5,11</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>52,53</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>3,25</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>8,29</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>59,27</t>
+          <t>0,0</t>
         </is>
       </c>
     </row>
@@ -1117,47 +1117,47 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-1,06; 6,85</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>4,65; 13,61</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>58,72; 67,78</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-4,8; 8,73</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-1,5; 11,09</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>47,17; 57,17</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>-0,93; 7,41</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>4,26; 12,41</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>55,13; 62,55</t>
+          <t>—; —</t>
         </is>
       </c>
     </row>
@@ -1170,47 +1170,47 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>32,59%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>103,65%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>706,15%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>5,6%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>13,45%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>138,28%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>14,48%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
-          <t>36,97%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
-          <t>264,34%</t>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -1223,47 +1223,47 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-9,81; 94,36</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>39,08; 190,44</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>501,19; 992,37</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>-11,56; 25,0</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>-4,41; 32,02</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>111,88; 167,98</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>-3,72; 36,02</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>16,85; 60,55</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>219,86; 313,07</t>
+          <t>—; —</t>
         </is>
       </c>
     </row>
@@ -1280,47 +1280,47 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>0,9</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>5,99</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>55,95</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>0,99</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>1,18</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>36,69</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>1,03</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
         <is>
-          <t>3,69</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="K16" s="2" t="inlineStr">
         <is>
-          <t>46,74</t>
+          <t>0,0</t>
         </is>
       </c>
     </row>
@@ -1333,47 +1333,47 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-0,6; 2,36</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>4,4; 7,57</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>52,65; 58,16</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>-1,41; 3,47</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>-1,19; 3,73</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>34,49; 38,85</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>-0,52; 2,89</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>1,99; 5,25</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>44,63; 48,72</t>
+          <t>—; —</t>
         </is>
       </c>
     </row>
@@ -1386,47 +1386,47 @@
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>10,61%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="D18" s="2" t="inlineStr">
         <is>
-          <t>70,89%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>662,68%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>1,82%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
         <is>
-          <t>2,18%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="H18" s="2" t="inlineStr">
         <is>
-          <t>67,78%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="I18" s="2" t="inlineStr">
         <is>
-          <t>3,26%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="J18" s="2" t="inlineStr">
         <is>
-          <t>11,66%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="K18" s="2" t="inlineStr">
         <is>
-          <t>147,75%</t>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -1439,47 +1439,47 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>-6,71; 30,93</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>47,58; 98,61</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>572,21; 766,12</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>-2,56; 6,49</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>-2,15; 7,01</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>61,9; 74,08</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>-1,64; 9,25</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>6,07; 17,04</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>137,42; 158,83</t>
+          <t>—; —</t>
         </is>
       </c>
     </row>
